--- a/Agile Documentation/Sprint Task Sheet.xlsx
+++ b/Agile Documentation/Sprint Task Sheet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>Week #1 (7 hrs / week)</t>
   </si>
@@ -242,6 +242,12 @@
     <t>Edit and Cancel Booking frontend and backend</t>
   </si>
   <si>
+    <t>Money refund validation on update booking</t>
+  </si>
+  <si>
+    <t>Miles Refund on cancellation and validations</t>
+  </si>
+  <si>
     <t>Admin/Employer Functionality</t>
   </si>
   <si>
@@ -281,10 +287,19 @@
     <t>Validation of number of miles before booking</t>
   </si>
   <si>
-    <t>Deployment &amp; Documentation</t>
+    <t>Updation of miles for update booking</t>
   </si>
   <si>
-    <t>Integration of each other task</t>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration and Deployment </t>
+  </si>
+  <si>
+    <t>aws deployment</t>
   </si>
   <si>
     <t>Team:</t>
@@ -741,11 +756,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1352416811"/>
-        <c:axId val="1548763665"/>
+        <c:axId val="601624925"/>
+        <c:axId val="2054280262"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1352416811"/>
+        <c:axId val="601624925"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,10 +812,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1548763665"/>
+        <c:crossAx val="2054280262"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1548763665"/>
+        <c:axId val="2054280262"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +890,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1352416811"/>
+        <c:crossAx val="601624925"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1756,232 +1771,232 @@
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="D5" s="17">
-        <f t="shared" ref="D5:BH5" si="1">SUM(D6:D41)</f>
-        <v>222</v>
+        <f t="shared" ref="D5:BH5" si="1">SUM(D6:D44)</f>
+        <v>224</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" si="1"/>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F5" s="19">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H5" s="19">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="I5" s="19">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J5" s="19">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K5" s="19">
         <f t="shared" si="1"/>
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L5" s="19">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" s="19">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N5" s="19">
         <f t="shared" si="1"/>
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O5" s="19">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P5" s="19">
         <f t="shared" si="1"/>
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="19">
         <f t="shared" si="1"/>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="1"/>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="S5" s="19">
         <f t="shared" si="1"/>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T5" s="19">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="U5" s="19">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V5" s="19">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="W5" s="19">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="X5" s="19">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Y5" s="19">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Z5" s="19">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA5" s="19">
         <f t="shared" si="1"/>
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AB5" s="19">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AC5" s="19">
         <f t="shared" si="1"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="19">
         <f t="shared" si="1"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AE5" s="19">
         <f t="shared" si="1"/>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AF5" s="19">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AG5" s="19">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AH5" s="19">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AI5" s="19">
         <f t="shared" si="1"/>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ5" s="19">
         <f t="shared" si="1"/>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AK5" s="19">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AL5" s="19">
         <f t="shared" si="1"/>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM5" s="19">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AN5" s="19">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AO5" s="19">
         <f t="shared" si="1"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AP5" s="19">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AQ5" s="19">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AR5" s="19">
         <f t="shared" si="1"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS5" s="19">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AT5" s="19">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AU5" s="19">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AV5" s="19">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AW5" s="19">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AX5" s="19">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AY5" s="19">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AZ5" s="19">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BA5" s="19">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB5" s="19">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BC5" s="19">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BD5" s="19">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BE5" s="19">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BF5" s="19">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BG5" s="19">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BH5" s="19">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -4858,11 +4873,21 @@
       <c r="BC21" s="26">
         <v>2.0</v>
       </c>
-      <c r="BD21" s="26"/>
-      <c r="BE21" s="26"/>
-      <c r="BF21" s="26"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
+      <c r="BD21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BE21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BF21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG21" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH21" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
@@ -5903,20 +5928,48 @@
       <c r="AT27" s="26">
         <v>7.0</v>
       </c>
-      <c r="AU27" s="27"/>
-      <c r="AV27" s="27"/>
-      <c r="AW27" s="27"/>
-      <c r="AX27" s="27"/>
-      <c r="AY27" s="27"/>
-      <c r="AZ27" s="27"/>
-      <c r="BA27" s="27"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
+      <c r="AU27" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="AV27" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="AW27" s="27">
+        <v>7.0</v>
+      </c>
+      <c r="AX27" s="27">
+        <v>3.0</v>
+      </c>
+      <c r="AY27" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AZ27" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="BA27" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="BB27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BC27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BD27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BE27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BF27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG27" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH27" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="33" t="s">
@@ -6101,7 +6154,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="21" t="s">
@@ -6283,173 +6336,169 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" s="35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D30" s="36">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="J30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="K30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="L30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="M30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="N30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="O30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="P30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="R30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="S30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="T30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="U30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="V30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="W30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="X30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC30" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF30" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AG30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI30" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="AJ30" s="24">
-        <v>7.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="AJ30" s="24"/>
       <c r="AK30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL30" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AM30" s="24">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AN30" s="25">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AO30" s="25">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP30" s="25">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ30" s="25">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AR30" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS30" s="26">
         <v>2.0</v>
       </c>
       <c r="AT30" s="26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AU30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AV30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AW30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AX30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AY30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="AZ30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BA30" s="27">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BB30" s="26">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="BC30" s="26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BD30" s="26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BE30" s="26">
         <v>0.0</v>
@@ -6465,187 +6514,187 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D31" s="36">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="E31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="F31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="H31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="I31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="K31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="L31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="M31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="N31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="O31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="P31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="R31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="S31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="T31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="U31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="V31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="W31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="X31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Y31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="Z31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AA31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AB31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AC31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AD31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AE31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AF31" s="26">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AG31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AH31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AI31" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="AJ31" s="24">
-        <v>7.0</v>
-      </c>
+        <v>2.0</v>
+      </c>
+      <c r="AJ31" s="24"/>
       <c r="AK31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AM31" s="24">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AN31" s="25">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="AO31" s="25">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="AP31" s="25">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="AQ31" s="25">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AR31" s="26">
         <v>2.0</v>
       </c>
       <c r="AS31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AT31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AU31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AV31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AW31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AX31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AY31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="AZ31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="BA31" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="BB31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BC31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BD31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BE31" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BF31" s="26">
         <v>1.0</v>
       </c>
-      <c r="AT31" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AU31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AV31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AW31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AX31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AY31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="AZ31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="BA31" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="BB31" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="BC31" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="BD31" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="BE31" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="BF31" s="26">
-        <v>0.0</v>
-      </c>
       <c r="BG31" s="26">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BH31" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="15"/>
+      <c r="A32" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="B32" s="21" t="s">
         <v>79</v>
       </c>
@@ -6653,165 +6702,165 @@
         <v>42</v>
       </c>
       <c r="D32" s="36">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="E32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="J32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="K32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="L32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="M32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="N32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="O32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="P32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="R32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="S32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="T32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="U32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="V32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="W32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="X32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC32" s="25">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AD32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AE32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF32" s="26">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AH32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AI32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AJ32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AK32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AL32" s="24">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="AM32" s="24">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="AN32" s="25">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="AO32" s="25">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AP32" s="25">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="AQ32" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AR32" s="26">
         <v>3.0</v>
       </c>
       <c r="AS32" s="26">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AT32" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="AU32" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AV32" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AW32" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="AX32" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="AY32" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="AZ32" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="BA32" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="BB32" s="25">
-        <v>1.0</v>
-      </c>
-      <c r="BC32" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="BD32" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="BE32" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AU32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AV32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AW32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AX32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AY32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AZ32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="BA32" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="BB32" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BC32" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BD32" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BE32" s="26">
         <v>0.0</v>
       </c>
       <c r="BF32" s="26">
@@ -6825,787 +6874,911 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="14"/>
+      <c r="B33" s="21" t="s">
         <v>80</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="35" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="36">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="F33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="G33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="H33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="I33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="J33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="K33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="L33" s="25">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="M33" s="25">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="N33" s="25">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="O33" s="25">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="P33" s="26">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q33" s="26">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="R33" s="26">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="S33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="T33" s="24">
-        <v>28.0</v>
+        <v>7.0</v>
       </c>
       <c r="U33" s="24">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="V33" s="24">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="W33" s="24">
-        <v>25.0</v>
+        <v>7.0</v>
       </c>
       <c r="X33" s="24">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="Y33" s="24">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="Z33" s="25">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="AA33" s="25">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="AB33" s="25">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="AC33" s="25">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="AD33" s="26">
-        <v>22.0</v>
+        <v>7.0</v>
       </c>
       <c r="AE33" s="26">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF33" s="26">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AG33" s="24">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AH33" s="24">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="AI33" s="24">
-        <v>20.0</v>
+        <v>7.0</v>
       </c>
       <c r="AJ33" s="24">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="AK33" s="24">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="AL33" s="24">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="AM33" s="24">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="AN33" s="25">
-        <v>17.0</v>
+        <v>7.0</v>
       </c>
       <c r="AO33" s="25">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="AP33" s="25">
-        <v>17.0</v>
+        <v>4.0</v>
       </c>
       <c r="AQ33" s="25">
-        <v>15.0</v>
+        <v>3.0</v>
       </c>
       <c r="AR33" s="26">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="AS33" s="26">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="AT33" s="26">
-        <v>13.0</v>
-      </c>
-      <c r="AU33" s="24">
-        <v>13.0</v>
-      </c>
-      <c r="AV33" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="AW33" s="24">
-        <v>12.0</v>
-      </c>
-      <c r="AX33" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AY33" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="AZ33" s="24">
-        <v>8.0</v>
-      </c>
-      <c r="BA33" s="24">
-        <v>6.0</v>
-      </c>
-      <c r="BB33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BC33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BD33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BE33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BF33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BG33" s="25">
-        <v>6.0</v>
-      </c>
-      <c r="BH33" s="25">
-        <v>6.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AU33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AV33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AW33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AX33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AY33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="AZ33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="BA33" s="27">
+        <v>0.0</v>
+      </c>
+      <c r="BB33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BC33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BD33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BE33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BF33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG33" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH33" s="26">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D34" s="36">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="E34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="F34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="J34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="K34" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="L34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="N34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="O34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="L34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="M34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="N34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="O34" s="25">
+        <v>3.0</v>
       </c>
       <c r="P34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="R34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="S34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="T34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="U34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="V34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="W34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="X34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="Y34" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="Z34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AA34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AB34" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AC34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="Z34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AA34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AB34" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AC34" s="25">
+        <v>3.0</v>
       </c>
       <c r="AD34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AE34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AF34" s="26">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AG34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AH34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AI34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AJ34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AK34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AL34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AM34" s="24">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN34" s="25">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="AO34" s="25">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="AP34" s="25">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="AQ34" s="25">
         <v>3.0</v>
       </c>
       <c r="AR34" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AS34" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AT34" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU34" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AV34" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AW34" s="24">
         <v>2.0</v>
       </c>
-      <c r="AS34" s="26">
+      <c r="AX34" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AY34" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AZ34" s="24">
         <v>1.0</v>
       </c>
-      <c r="AT34" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AU34" s="24"/>
-      <c r="AV34" s="24"/>
-      <c r="AW34" s="24"/>
-      <c r="AX34" s="24"/>
-      <c r="AY34" s="24"/>
-      <c r="AZ34" s="24"/>
-      <c r="BA34" s="24"/>
-      <c r="BB34" s="29"/>
-      <c r="BC34" s="29"/>
-      <c r="BD34" s="29"/>
-      <c r="BE34" s="29"/>
-      <c r="BF34" s="30"/>
-      <c r="BG34" s="30"/>
-      <c r="BH34" s="30"/>
+      <c r="BA34" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="BB34" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="BC34" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD34" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE34" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF34" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG34" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH34" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="15"/>
+      <c r="A35" s="34" t="s">
+        <v>82</v>
+      </c>
       <c r="B35" s="21" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D35" s="36">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="E35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="F35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="G35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="H35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="I35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="J35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="K35" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="L35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="M35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="N35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="O35" s="26">
-        <v>7.0</v>
+        <v>28.0</v>
+      </c>
+      <c r="L35" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="M35" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="N35" s="25">
+        <v>28.0</v>
+      </c>
+      <c r="O35" s="25">
+        <v>28.0</v>
       </c>
       <c r="P35" s="26">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="Q35" s="26">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="R35" s="26">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="S35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="T35" s="24">
-        <v>7.0</v>
+        <v>28.0</v>
       </c>
       <c r="U35" s="24">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="V35" s="24">
-        <v>7.0</v>
+        <v>27.0</v>
       </c>
       <c r="W35" s="24">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
       <c r="X35" s="24">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="Y35" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="Z35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AA35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AB35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AC35" s="26">
-        <v>7.0</v>
+        <v>24.0</v>
+      </c>
+      <c r="Z35" s="25">
+        <v>24.0</v>
+      </c>
+      <c r="AA35" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="AB35" s="25">
+        <v>23.0</v>
+      </c>
+      <c r="AC35" s="25">
+        <v>22.0</v>
       </c>
       <c r="AD35" s="26">
-        <v>7.0</v>
+        <v>22.0</v>
       </c>
       <c r="AE35" s="26">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="AF35" s="26">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="AG35" s="24">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="AH35" s="24">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="AI35" s="24">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="AJ35" s="24">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="AK35" s="24">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="AL35" s="24">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="AM35" s="24">
-        <v>7.0</v>
-      </c>
-      <c r="AN35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AO35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AP35" s="26">
-        <v>7.0</v>
-      </c>
-      <c r="AQ35" s="26">
-        <v>7.0</v>
+        <v>18.0</v>
+      </c>
+      <c r="AN35" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="AO35" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="AP35" s="25">
+        <v>17.0</v>
+      </c>
+      <c r="AQ35" s="25">
+        <v>15.0</v>
       </c>
       <c r="AR35" s="26">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="AS35" s="26">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AT35" s="26">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AU35" s="24">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="AV35" s="24">
+        <v>12.0</v>
+      </c>
+      <c r="AW35" s="24">
+        <v>12.0</v>
+      </c>
+      <c r="AX35" s="24">
+        <v>11.0</v>
+      </c>
+      <c r="AY35" s="24">
+        <v>10.0</v>
+      </c>
+      <c r="AZ35" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="BA35" s="24">
         <v>6.0</v>
       </c>
-      <c r="AW35" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="AX35" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AY35" s="24">
-        <v>2.0</v>
-      </c>
-      <c r="AZ35" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="BA35" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="BB35" s="29"/>
-      <c r="BC35" s="29"/>
-      <c r="BD35" s="29"/>
-      <c r="BE35" s="29"/>
-      <c r="BF35" s="30"/>
-      <c r="BG35" s="30"/>
-      <c r="BH35" s="30"/>
+      <c r="BB35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BC35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BD35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BE35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BF35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BG35" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="BH35" s="25">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="34" t="s">
+      <c r="A36" s="14"/>
+      <c r="B36" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="B36" s="21" t="s">
-        <v>85</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="E36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="F36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="G36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="H36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="I36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="J36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="K36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="L36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="M36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="N36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="O36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="P36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="R36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="S36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="T36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="U36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="V36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="W36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="X36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="Y36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="Z36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AA36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AB36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AC36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AD36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AE36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AF36" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AG36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AH36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AI36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AJ36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AK36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AL36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AM36" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AN36" s="25">
+        <v>6.0</v>
+      </c>
+      <c r="AO36" s="25">
+        <v>5.0</v>
+      </c>
+      <c r="AP36" s="25">
         <v>4.0</v>
       </c>
-      <c r="E36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="F36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="G36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="H36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="I36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="J36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="K36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="L36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="M36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="N36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="O36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="P36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="Q36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="R36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="S36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="T36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="U36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="V36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="W36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="X36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="Y36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="Z36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AA36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AB36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AC36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AD36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AE36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AF36" s="25">
-        <v>4.0</v>
-      </c>
-      <c r="AG36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="AH36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="AI36" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="AJ36" s="24">
+      <c r="AQ36" s="25">
         <v>3.0</v>
       </c>
-      <c r="AK36" s="24">
+      <c r="AR36" s="26">
         <v>2.0</v>
       </c>
-      <c r="AL36" s="24">
+      <c r="AS36" s="26">
         <v>1.0</v>
       </c>
-      <c r="AM36" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AN36" s="29"/>
-      <c r="AO36" s="29"/>
-      <c r="AP36" s="29"/>
-      <c r="AQ36" s="29"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="24"/>
-      <c r="AV36" s="24"/>
-      <c r="AW36" s="24"/>
-      <c r="AX36" s="24"/>
-      <c r="AY36" s="24"/>
-      <c r="AZ36" s="24"/>
-      <c r="BA36" s="24"/>
-      <c r="BB36" s="29"/>
-      <c r="BC36" s="29"/>
-      <c r="BD36" s="29"/>
-      <c r="BE36" s="29"/>
-      <c r="BF36" s="30"/>
-      <c r="BG36" s="30"/>
-      <c r="BH36" s="30"/>
+      <c r="AT36" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AU36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AV36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AW36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AX36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AY36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AZ36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BA36" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BB36" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC36" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD36" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE36" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF36" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG36" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH36" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="14"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C37" s="35" t="s">
         <v>45</v>
       </c>
       <c r="D37" s="36">
+        <v>7.0</v>
+      </c>
+      <c r="E37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="F37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="G37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="H37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="I37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="J37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="K37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="L37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="M37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="N37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="P37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="R37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="S37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="T37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="U37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="V37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="W37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="X37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="Y37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="Z37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AA37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AB37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AC37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AD37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AE37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AF37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AG37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AH37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AI37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AJ37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AK37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AL37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AM37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AN37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AO37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AP37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AQ37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AR37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AS37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AT37" s="26">
+        <v>7.0</v>
+      </c>
+      <c r="AU37" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="AV37" s="24">
+        <v>6.0</v>
+      </c>
+      <c r="AW37" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AX37" s="24">
         <v>3.0</v>
       </c>
-      <c r="E37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="F37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="G37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="H37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="I37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="J37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="K37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="L37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="R37" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="S37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="T37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="U37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="V37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="W37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="X37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="Y37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="Z37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AA37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AB37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AC37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AD37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AE37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AF37" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AG37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AH37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AI37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AJ37" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="AK37" s="24">
+      <c r="AY37" s="24">
         <v>2.0</v>
       </c>
-      <c r="AL37" s="24">
+      <c r="AZ37" s="24">
         <v>1.0</v>
       </c>
-      <c r="AM37" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AN37" s="29"/>
-      <c r="AO37" s="29"/>
-      <c r="AP37" s="29"/>
-      <c r="AQ37" s="29"/>
-      <c r="AR37" s="30"/>
-      <c r="AS37" s="30"/>
-      <c r="AT37" s="30"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="24"/>
-      <c r="AW37" s="24"/>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
       <c r="BA37" s="24">
         <v>0.0</v>
       </c>
-      <c r="BB37" s="29"/>
-      <c r="BC37" s="29"/>
-      <c r="BD37" s="29"/>
-      <c r="BE37" s="29"/>
-      <c r="BF37" s="30"/>
-      <c r="BG37" s="30"/>
-      <c r="BH37" s="30"/>
+      <c r="BB37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE37" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF37" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG37" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH37" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="14"/>
+      <c r="A38" s="34" t="s">
+        <v>86</v>
+      </c>
       <c r="B38" s="21" t="s">
         <v>87</v>
       </c>
@@ -7613,163 +7786,179 @@
         <v>45</v>
       </c>
       <c r="D38" s="36">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="F38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="H38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="J38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="K38" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="L38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="M38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="N38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="O38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="P38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="R38" s="26">
-        <v>3.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="L38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="M38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="N38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="O38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="P38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="Q38" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="R38" s="25">
+        <v>4.0</v>
       </c>
       <c r="S38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="T38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="U38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="V38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="W38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="X38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Y38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="Z38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AA38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AB38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AC38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AD38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AE38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AF38" s="25">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AG38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AH38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AI38" s="24">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="AJ38" s="24">
         <v>3.0</v>
       </c>
       <c r="AK38" s="24">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="AL38" s="24">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="AM38" s="24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AN38" s="25">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AO38" s="25">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AP38" s="25">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ38" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AR38" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AS38" s="25">
-        <v>3.0</v>
-      </c>
-      <c r="AT38" s="25">
-        <v>3.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="AR38" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AS38" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AT38" s="26">
+        <v>0.0</v>
       </c>
       <c r="AU38" s="24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AV38" s="24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AW38" s="24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AX38" s="24">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="AY38" s="24">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ38" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="BA38" s="24"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="30"/>
-      <c r="BG38" s="30"/>
-      <c r="BH38" s="30"/>
+        <v>0.0</v>
+      </c>
+      <c r="BA38" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BB38" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC38" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD38" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE38" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF38" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG38" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH38" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="15"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="21" t="s">
         <v>88</v>
       </c>
@@ -7777,682 +7966,1084 @@
         <v>45</v>
       </c>
       <c r="D39" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="E39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="G39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="H39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="I39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="J39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="K39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R39" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="T39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="U39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="V39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="W39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="X39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Y39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Z39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AA39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AB39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AC39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AD39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AE39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AF39" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AG39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AH39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AI39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AJ39" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AK39" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AL39" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="AM39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AN39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AO39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AP39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AQ39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="AR39" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AS39" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AT39" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="AU39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AV39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AW39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AX39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AY39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="AZ39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BA39" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BB39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE39" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF39" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG39" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH39" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14"/>
+      <c r="B40" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="E40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="G40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="H40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="I40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="J40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="K40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="L40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R40" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="T40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="U40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="V40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="W40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="X40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Y40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Z40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AA40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AB40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AC40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AD40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AE40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AF40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AG40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AH40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AI40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AJ40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AK40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AL40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AM40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AN40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AO40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AP40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AQ40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AR40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AS40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AT40" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="AU40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AV40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AW40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AX40" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AY40" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AZ40" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="BA40" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BB40" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC40" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD40" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE40" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF40" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG40" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH40" s="26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14"/>
+      <c r="B41" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="36">
         <v>7.0</v>
       </c>
-      <c r="E39" s="24">
+      <c r="E41" s="24">
         <v>7.0</v>
       </c>
-      <c r="F39" s="24">
+      <c r="F41" s="24">
         <v>7.0</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G41" s="24">
         <v>7.0</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H41" s="24">
         <v>7.0</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I41" s="24">
         <v>7.0</v>
       </c>
-      <c r="J39" s="24">
+      <c r="J41" s="24">
         <v>7.0</v>
       </c>
-      <c r="K39" s="24">
+      <c r="K41" s="24">
         <v>7.0</v>
       </c>
-      <c r="L39" s="26">
+      <c r="L41" s="26">
         <v>7.0</v>
       </c>
-      <c r="M39" s="26">
+      <c r="M41" s="26">
         <v>7.0</v>
       </c>
-      <c r="N39" s="26">
+      <c r="N41" s="26">
         <v>7.0</v>
       </c>
-      <c r="O39" s="26">
+      <c r="O41" s="26">
         <v>7.0</v>
       </c>
-      <c r="P39" s="26">
+      <c r="P41" s="26">
         <v>7.0</v>
       </c>
-      <c r="Q39" s="26">
+      <c r="Q41" s="26">
         <v>7.0</v>
       </c>
-      <c r="R39" s="26">
+      <c r="R41" s="26">
         <v>7.0</v>
       </c>
-      <c r="S39" s="24">
+      <c r="S41" s="24">
         <v>7.0</v>
       </c>
-      <c r="T39" s="24">
+      <c r="T41" s="24">
         <v>7.0</v>
       </c>
-      <c r="U39" s="24">
+      <c r="U41" s="24">
         <v>7.0</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V41" s="24">
         <v>7.0</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W41" s="24">
         <v>7.0</v>
       </c>
-      <c r="X39" s="24">
+      <c r="X41" s="24">
         <v>7.0</v>
       </c>
-      <c r="Y39" s="24">
+      <c r="Y41" s="24">
         <v>7.0</v>
       </c>
-      <c r="Z39" s="26">
+      <c r="Z41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AA39" s="26">
+      <c r="AA41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AB39" s="26">
+      <c r="AB41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AC39" s="26">
+      <c r="AC41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AD39" s="26">
+      <c r="AD41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AE39" s="26">
+      <c r="AE41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AF39" s="26">
+      <c r="AF41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AG39" s="24">
+      <c r="AG41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AH39" s="24">
+      <c r="AH41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AI39" s="24">
+      <c r="AI41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AJ39" s="24">
+      <c r="AJ41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AK39" s="24">
+      <c r="AK41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AL39" s="24">
+      <c r="AL41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AM39" s="24">
+      <c r="AM41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AN39" s="26">
+      <c r="AN41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AO39" s="26">
+      <c r="AO41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AP39" s="26">
+      <c r="AP41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AQ39" s="26">
+      <c r="AQ41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AR39" s="26">
+      <c r="AR41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AS39" s="26">
+      <c r="AS41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AT39" s="26">
+      <c r="AT41" s="26">
         <v>7.0</v>
       </c>
-      <c r="AU39" s="24">
+      <c r="AU41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AV39" s="24">
+      <c r="AV41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AW39" s="24">
+      <c r="AW41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AX39" s="24">
+      <c r="AX41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AY39" s="24">
+      <c r="AY41" s="24">
         <v>7.0</v>
       </c>
-      <c r="AZ39" s="24">
+      <c r="AZ41" s="24">
         <v>7.0</v>
       </c>
-      <c r="BA39" s="24">
+      <c r="BA41" s="24">
         <v>7.0</v>
       </c>
-      <c r="BB39" s="25">
+      <c r="BB41" s="25">
         <v>7.0</v>
       </c>
-      <c r="BC39" s="25">
+      <c r="BC41" s="25">
         <v>7.0</v>
       </c>
-      <c r="BD39" s="25">
+      <c r="BD41" s="25">
         <v>7.0</v>
       </c>
-      <c r="BE39" s="25">
+      <c r="BE41" s="25">
         <v>6.0</v>
       </c>
-      <c r="BF39" s="25">
+      <c r="BF41" s="25">
         <v>5.0</v>
       </c>
-      <c r="BG39" s="25">
+      <c r="BG41" s="25">
         <v>1.0</v>
       </c>
-      <c r="BH39" s="25">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="36">
-        <v>11.0</v>
-      </c>
-      <c r="E40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="F40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="G40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="H40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="I40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="J40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="K40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="L40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="M40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="N40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="O40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="P40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="Q40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="R40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="S40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="T40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="U40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="V40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="W40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="X40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="Y40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="Z40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AA40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AB40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AC40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AD40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AE40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AF40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AG40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AH40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AI40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AJ40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AK40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AL40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AM40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AN40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AO40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AP40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AQ40" s="25">
-        <v>11.0</v>
-      </c>
-      <c r="AR40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AS40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AT40" s="26">
-        <v>11.0</v>
-      </c>
-      <c r="AU40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AV40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AW40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AX40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AY40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="AZ40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="BA40" s="24">
-        <v>11.0</v>
-      </c>
-      <c r="BB40" s="29"/>
-      <c r="BC40" s="29"/>
-      <c r="BD40" s="29"/>
-      <c r="BE40" s="29"/>
-      <c r="BF40" s="30"/>
-      <c r="BG40" s="30"/>
-      <c r="BH40" s="30"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="36">
-        <v>0.0</v>
-      </c>
-      <c r="E41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="F41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="G41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="H41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="I41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="J41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="M41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="N41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="O41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="P41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="R41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="S41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="T41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="V41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="W41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="X41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="Y41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="Z41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AA41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AB41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AC41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AD41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AE41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AF41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AG41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AH41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AI41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AJ41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AK41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AL41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AM41" s="24">
-        <v>0.0</v>
-      </c>
-      <c r="AN41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AO41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AP41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AQ41" s="25">
-        <v>0.0</v>
-      </c>
-      <c r="AR41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AS41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AT41" s="26">
-        <v>0.0</v>
-      </c>
-      <c r="AU41" s="24"/>
-      <c r="AV41" s="24"/>
-      <c r="AW41" s="24"/>
-      <c r="AX41" s="24"/>
-      <c r="AY41" s="24"/>
-      <c r="AZ41" s="24"/>
-      <c r="BA41" s="24"/>
-      <c r="BB41" s="29"/>
-      <c r="BC41" s="29"/>
-      <c r="BD41" s="29"/>
-      <c r="BE41" s="29"/>
-      <c r="BF41" s="30"/>
-      <c r="BG41" s="30"/>
-      <c r="BH41" s="30"/>
+      <c r="BH41" s="25">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="40"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="43"/>
-      <c r="P42" s="43"/>
-      <c r="Q42" s="43"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
-      <c r="AE42" s="43"/>
-      <c r="AF42" s="43"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="43"/>
-      <c r="AJ42" s="43"/>
-      <c r="AK42" s="43"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
-      <c r="AN42" s="43"/>
-      <c r="AO42" s="43"/>
-      <c r="AP42" s="43"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
-      <c r="AS42" s="43"/>
-      <c r="AT42" s="43"/>
-      <c r="AU42" s="43"/>
-      <c r="AV42" s="43"/>
-      <c r="AW42" s="43"/>
-      <c r="AX42" s="43"/>
-      <c r="AY42" s="43"/>
-      <c r="AZ42" s="43"/>
-      <c r="BA42" s="43"/>
-      <c r="BB42" s="43"/>
-      <c r="BC42" s="43"/>
-      <c r="BD42" s="43"/>
-      <c r="BE42" s="43"/>
-      <c r="BF42" s="43"/>
-      <c r="BG42" s="43"/>
-      <c r="BH42" s="43"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="E42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="F42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="G42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="H42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="I42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="J42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="K42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="L42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="M42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="N42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="O42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="P42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="Q42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="R42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="S42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="T42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="U42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="V42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="W42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="X42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="Y42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="Z42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AA42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AB42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AC42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AD42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AE42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AF42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AG42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AH42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AI42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AJ42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AK42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AL42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AM42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AN42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AO42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AP42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AQ42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AR42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AS42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AT42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="AU42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AV42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AW42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AX42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AY42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="AZ42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="BA42" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="BB42" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="BC42" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="BD42" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BE42" s="25">
+        <v>1.0</v>
+      </c>
+      <c r="BF42" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BG42" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BH42" s="25">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="40"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="43"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
-      <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="43"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
-      <c r="AI43" s="43"/>
-      <c r="AJ43" s="43"/>
-      <c r="AK43" s="43"/>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="43"/>
-      <c r="AN43" s="43"/>
-      <c r="AO43" s="43"/>
-      <c r="AP43" s="43"/>
-      <c r="AQ43" s="43"/>
-      <c r="AR43" s="43"/>
-      <c r="AS43" s="43"/>
-      <c r="AT43" s="43"/>
-      <c r="AU43" s="43"/>
-      <c r="AV43" s="43"/>
-      <c r="AW43" s="43"/>
-      <c r="AX43" s="43"/>
-      <c r="AY43" s="43"/>
-      <c r="AZ43" s="43"/>
-      <c r="BA43" s="43"/>
-      <c r="BB43" s="43"/>
-      <c r="BC43" s="43"/>
-      <c r="BD43" s="43"/>
-      <c r="BE43" s="43"/>
-      <c r="BF43" s="43"/>
-      <c r="BG43" s="43"/>
-      <c r="BH43" s="43"/>
+      <c r="A43" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="21"/>
+      <c r="C43" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="36">
+        <v>2.0</v>
+      </c>
+      <c r="E43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="F43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="G43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="H43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="I43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="J43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="K43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="L43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="M43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="N43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="O43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="P43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="R43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="S43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="T43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="U43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="V43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="W43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="X43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="Y43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="Z43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AA43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AB43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AC43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AD43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AE43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AF43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AG43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AH43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AI43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AJ43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AK43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AL43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AM43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AN43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AO43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AP43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AQ43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="AR43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AS43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AT43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="AU43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AV43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AW43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AX43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AY43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="AZ43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="BA43" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="BB43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BC43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BD43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BE43" s="25">
+        <v>2.0</v>
+      </c>
+      <c r="BF43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BG43" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="BH43" s="26">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="40"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
-      <c r="P44" s="43"/>
-      <c r="Q44" s="43"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="43"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
-      <c r="AD44" s="43"/>
-      <c r="AE44" s="43"/>
-      <c r="AF44" s="43"/>
-      <c r="AG44" s="43"/>
-      <c r="AH44" s="43"/>
-      <c r="AI44" s="43"/>
-      <c r="AJ44" s="43"/>
-      <c r="AK44" s="43"/>
-      <c r="AL44" s="43"/>
-      <c r="AM44" s="43"/>
-      <c r="AN44" s="43"/>
-      <c r="AO44" s="43"/>
-      <c r="AP44" s="43"/>
-      <c r="AQ44" s="43"/>
-      <c r="AR44" s="43"/>
-      <c r="AS44" s="43"/>
-      <c r="AT44" s="43"/>
-      <c r="AU44" s="43"/>
-      <c r="AV44" s="43"/>
-      <c r="AW44" s="43"/>
-      <c r="AX44" s="43"/>
-      <c r="AY44" s="43"/>
-      <c r="AZ44" s="43"/>
-      <c r="BA44" s="43"/>
-      <c r="BB44" s="43"/>
-      <c r="BC44" s="43"/>
-      <c r="BD44" s="43"/>
-      <c r="BE44" s="43"/>
-      <c r="BF44" s="43"/>
-      <c r="BG44" s="43"/>
-      <c r="BH44" s="43"/>
+      <c r="A44" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="36">
+        <v>3.0</v>
+      </c>
+      <c r="E44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="F44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="G44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="H44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="I44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="J44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="K44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="L44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="M44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="N44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="O44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="R44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="S44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="T44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="U44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="V44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="W44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="X44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Y44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="Z44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AA44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AB44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AC44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AD44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AE44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AF44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AG44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AH44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AI44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AJ44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AK44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AL44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AM44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AN44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AO44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AP44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AQ44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AR44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AS44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AT44" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="AU44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AV44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AW44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AX44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AY44" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="AZ44" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="BA44" s="24">
+        <v>0.0</v>
+      </c>
+      <c r="BB44" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BC44" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BD44" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BE44" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="BF44" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BG44" s="26">
+        <v>0.0</v>
+      </c>
+      <c r="BH44" s="26">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="40"/>
       <c r="B45" s="31"/>
       <c r="C45" s="41"/>
-      <c r="D45" s="44"/>
+      <c r="D45" s="42"/>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
@@ -8511,10 +9102,10 @@
       <c r="BH45" s="43"/>
     </row>
     <row r="46">
-      <c r="A46" s="45"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="31"/>
       <c r="C46" s="41"/>
-      <c r="D46" s="44"/>
+      <c r="D46" s="42"/>
       <c r="E46" s="43"/>
       <c r="F46" s="43"/>
       <c r="G46" s="43"/>
@@ -8573,7 +9164,7 @@
       <c r="BH46" s="43"/>
     </row>
     <row r="47">
-      <c r="A47" s="45"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="31"/>
       <c r="C47" s="41"/>
       <c r="D47" s="44"/>
@@ -8635,7 +9226,7 @@
       <c r="BH47" s="43"/>
     </row>
     <row r="48">
-      <c r="A48" s="45"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="31"/>
       <c r="C48" s="41"/>
       <c r="D48" s="44"/>
@@ -8698,7 +9289,7 @@
     </row>
     <row r="49">
       <c r="A49" s="45"/>
-      <c r="B49" s="43"/>
+      <c r="B49" s="31"/>
       <c r="C49" s="41"/>
       <c r="D49" s="44"/>
       <c r="E49" s="43"/>
@@ -8759,7 +9350,7 @@
       <c r="BH49" s="43"/>
     </row>
     <row r="50">
-      <c r="A50" s="40"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="31"/>
       <c r="C50" s="41"/>
       <c r="D50" s="44"/>
@@ -8945,10 +9536,8 @@
       <c r="BH52" s="43"/>
     </row>
     <row r="53">
-      <c r="A53" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="B53" s="47"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="31"/>
       <c r="C53" s="41"/>
       <c r="D53" s="44"/>
       <c r="E53" s="43"/>
@@ -9009,12 +9598,8 @@
       <c r="BH53" s="43"/>
     </row>
     <row r="54">
-      <c r="A54" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B54" s="49" t="s">
-        <v>93</v>
-      </c>
+      <c r="A54" s="45"/>
+      <c r="B54" s="31"/>
       <c r="C54" s="41"/>
       <c r="D54" s="44"/>
       <c r="E54" s="43"/>
@@ -9075,12 +9660,8 @@
       <c r="BH54" s="43"/>
     </row>
     <row r="55">
-      <c r="A55" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>93</v>
-      </c>
+      <c r="A55" s="45"/>
+      <c r="B55" s="43"/>
       <c r="C55" s="41"/>
       <c r="D55" s="44"/>
       <c r="E55" s="43"/>
@@ -9141,12 +9722,10 @@
       <c r="BH55" s="43"/>
     </row>
     <row r="56">
-      <c r="A56" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="49" t="s">
-        <v>93</v>
-      </c>
+      <c r="A56" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="B56" s="47"/>
       <c r="C56" s="41"/>
       <c r="D56" s="44"/>
       <c r="E56" s="43"/>
@@ -9208,10 +9787,10 @@
     </row>
     <row r="57">
       <c r="A57" s="48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" s="49" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C57" s="41"/>
       <c r="D57" s="44"/>
@@ -9273,8 +9852,12 @@
       <c r="BH57" s="43"/>
     </row>
     <row r="58">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
+      <c r="A58" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="49" t="s">
+        <v>98</v>
+      </c>
       <c r="C58" s="41"/>
       <c r="D58" s="44"/>
       <c r="E58" s="43"/>
@@ -9335,11 +9918,11 @@
       <c r="BH58" s="43"/>
     </row>
     <row r="59">
-      <c r="A59" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="51">
-        <v>28.0</v>
+      <c r="A59" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="49" t="s">
+        <v>98</v>
       </c>
       <c r="C59" s="41"/>
       <c r="D59" s="44"/>
@@ -9401,8 +9984,12 @@
       <c r="BH59" s="43"/>
     </row>
     <row r="60">
-      <c r="A60" s="45"/>
-      <c r="B60" s="43"/>
+      <c r="A60" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="49" t="s">
+        <v>98</v>
+      </c>
       <c r="C60" s="41"/>
       <c r="D60" s="44"/>
       <c r="E60" s="43"/>
@@ -9463,8 +10050,8 @@
       <c r="BH60" s="43"/>
     </row>
     <row r="61">
-      <c r="A61" s="45"/>
-      <c r="B61" s="43"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
       <c r="C61" s="41"/>
       <c r="D61" s="44"/>
       <c r="E61" s="43"/>
@@ -9525,8 +10112,12 @@
       <c r="BH61" s="43"/>
     </row>
     <row r="62">
-      <c r="A62" s="45"/>
-      <c r="B62" s="43"/>
+      <c r="A62" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="B62" s="51">
+        <v>28.0</v>
+      </c>
       <c r="C62" s="41"/>
       <c r="D62" s="44"/>
       <c r="E62" s="43"/>
@@ -68920,8 +69511,194 @@
       <c r="BG1019" s="43"/>
       <c r="BH1019" s="43"/>
     </row>
+    <row r="1020">
+      <c r="A1020" s="45"/>
+      <c r="B1020" s="43"/>
+      <c r="C1020" s="41"/>
+      <c r="D1020" s="44"/>
+      <c r="E1020" s="43"/>
+      <c r="F1020" s="43"/>
+      <c r="G1020" s="43"/>
+      <c r="H1020" s="43"/>
+      <c r="I1020" s="43"/>
+      <c r="J1020" s="43"/>
+      <c r="K1020" s="43"/>
+      <c r="L1020" s="43"/>
+      <c r="M1020" s="43"/>
+      <c r="N1020" s="43"/>
+      <c r="O1020" s="43"/>
+      <c r="P1020" s="43"/>
+      <c r="Q1020" s="43"/>
+      <c r="R1020" s="43"/>
+      <c r="S1020" s="43"/>
+      <c r="T1020" s="43"/>
+      <c r="U1020" s="43"/>
+      <c r="V1020" s="43"/>
+      <c r="W1020" s="43"/>
+      <c r="X1020" s="43"/>
+      <c r="Y1020" s="43"/>
+      <c r="Z1020" s="43"/>
+      <c r="AA1020" s="43"/>
+      <c r="AB1020" s="43"/>
+      <c r="AC1020" s="43"/>
+      <c r="AD1020" s="43"/>
+      <c r="AE1020" s="43"/>
+      <c r="AF1020" s="43"/>
+      <c r="AG1020" s="43"/>
+      <c r="AH1020" s="43"/>
+      <c r="AI1020" s="43"/>
+      <c r="AJ1020" s="43"/>
+      <c r="AK1020" s="43"/>
+      <c r="AL1020" s="43"/>
+      <c r="AM1020" s="43"/>
+      <c r="AN1020" s="43"/>
+      <c r="AO1020" s="43"/>
+      <c r="AP1020" s="43"/>
+      <c r="AQ1020" s="43"/>
+      <c r="AR1020" s="43"/>
+      <c r="AS1020" s="43"/>
+      <c r="AT1020" s="43"/>
+      <c r="AU1020" s="43"/>
+      <c r="AV1020" s="43"/>
+      <c r="AW1020" s="43"/>
+      <c r="AX1020" s="43"/>
+      <c r="AY1020" s="43"/>
+      <c r="AZ1020" s="43"/>
+      <c r="BA1020" s="43"/>
+      <c r="BB1020" s="43"/>
+      <c r="BC1020" s="43"/>
+      <c r="BD1020" s="43"/>
+      <c r="BE1020" s="43"/>
+      <c r="BF1020" s="43"/>
+      <c r="BG1020" s="43"/>
+      <c r="BH1020" s="43"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="45"/>
+      <c r="B1021" s="43"/>
+      <c r="C1021" s="41"/>
+      <c r="D1021" s="44"/>
+      <c r="E1021" s="43"/>
+      <c r="F1021" s="43"/>
+      <c r="G1021" s="43"/>
+      <c r="H1021" s="43"/>
+      <c r="I1021" s="43"/>
+      <c r="J1021" s="43"/>
+      <c r="K1021" s="43"/>
+      <c r="L1021" s="43"/>
+      <c r="M1021" s="43"/>
+      <c r="N1021" s="43"/>
+      <c r="O1021" s="43"/>
+      <c r="P1021" s="43"/>
+      <c r="Q1021" s="43"/>
+      <c r="R1021" s="43"/>
+      <c r="S1021" s="43"/>
+      <c r="T1021" s="43"/>
+      <c r="U1021" s="43"/>
+      <c r="V1021" s="43"/>
+      <c r="W1021" s="43"/>
+      <c r="X1021" s="43"/>
+      <c r="Y1021" s="43"/>
+      <c r="Z1021" s="43"/>
+      <c r="AA1021" s="43"/>
+      <c r="AB1021" s="43"/>
+      <c r="AC1021" s="43"/>
+      <c r="AD1021" s="43"/>
+      <c r="AE1021" s="43"/>
+      <c r="AF1021" s="43"/>
+      <c r="AG1021" s="43"/>
+      <c r="AH1021" s="43"/>
+      <c r="AI1021" s="43"/>
+      <c r="AJ1021" s="43"/>
+      <c r="AK1021" s="43"/>
+      <c r="AL1021" s="43"/>
+      <c r="AM1021" s="43"/>
+      <c r="AN1021" s="43"/>
+      <c r="AO1021" s="43"/>
+      <c r="AP1021" s="43"/>
+      <c r="AQ1021" s="43"/>
+      <c r="AR1021" s="43"/>
+      <c r="AS1021" s="43"/>
+      <c r="AT1021" s="43"/>
+      <c r="AU1021" s="43"/>
+      <c r="AV1021" s="43"/>
+      <c r="AW1021" s="43"/>
+      <c r="AX1021" s="43"/>
+      <c r="AY1021" s="43"/>
+      <c r="AZ1021" s="43"/>
+      <c r="BA1021" s="43"/>
+      <c r="BB1021" s="43"/>
+      <c r="BC1021" s="43"/>
+      <c r="BD1021" s="43"/>
+      <c r="BE1021" s="43"/>
+      <c r="BF1021" s="43"/>
+      <c r="BG1021" s="43"/>
+      <c r="BH1021" s="43"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="45"/>
+      <c r="B1022" s="43"/>
+      <c r="C1022" s="41"/>
+      <c r="D1022" s="44"/>
+      <c r="E1022" s="43"/>
+      <c r="F1022" s="43"/>
+      <c r="G1022" s="43"/>
+      <c r="H1022" s="43"/>
+      <c r="I1022" s="43"/>
+      <c r="J1022" s="43"/>
+      <c r="K1022" s="43"/>
+      <c r="L1022" s="43"/>
+      <c r="M1022" s="43"/>
+      <c r="N1022" s="43"/>
+      <c r="O1022" s="43"/>
+      <c r="P1022" s="43"/>
+      <c r="Q1022" s="43"/>
+      <c r="R1022" s="43"/>
+      <c r="S1022" s="43"/>
+      <c r="T1022" s="43"/>
+      <c r="U1022" s="43"/>
+      <c r="V1022" s="43"/>
+      <c r="W1022" s="43"/>
+      <c r="X1022" s="43"/>
+      <c r="Y1022" s="43"/>
+      <c r="Z1022" s="43"/>
+      <c r="AA1022" s="43"/>
+      <c r="AB1022" s="43"/>
+      <c r="AC1022" s="43"/>
+      <c r="AD1022" s="43"/>
+      <c r="AE1022" s="43"/>
+      <c r="AF1022" s="43"/>
+      <c r="AG1022" s="43"/>
+      <c r="AH1022" s="43"/>
+      <c r="AI1022" s="43"/>
+      <c r="AJ1022" s="43"/>
+      <c r="AK1022" s="43"/>
+      <c r="AL1022" s="43"/>
+      <c r="AM1022" s="43"/>
+      <c r="AN1022" s="43"/>
+      <c r="AO1022" s="43"/>
+      <c r="AP1022" s="43"/>
+      <c r="AQ1022" s="43"/>
+      <c r="AR1022" s="43"/>
+      <c r="AS1022" s="43"/>
+      <c r="AT1022" s="43"/>
+      <c r="AU1022" s="43"/>
+      <c r="AV1022" s="43"/>
+      <c r="AW1022" s="43"/>
+      <c r="AX1022" s="43"/>
+      <c r="AY1022" s="43"/>
+      <c r="AZ1022" s="43"/>
+      <c r="BA1022" s="43"/>
+      <c r="BB1022" s="43"/>
+      <c r="BC1022" s="43"/>
+      <c r="BD1022" s="43"/>
+      <c r="BE1022" s="43"/>
+      <c r="BF1022" s="43"/>
+      <c r="BG1022" s="43"/>
+      <c r="BH1022" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="Z1:AF1"/>
@@ -68931,9 +69708,10 @@
     <mergeCell ref="BB1:BH1"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A38:A42"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
@@ -68961,7 +69739,7 @@
   <sheetData>
     <row r="17">
       <c r="C17" s="52" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
